--- a/output/inference_results/test_sheets/batch_002/test_sheet (22).xlsx
+++ b/output/inference_results/test_sheets/batch_002/test_sheet (22).xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>乙型肝炎表面抗原</t>
+          <t>乙型肝炎表面抗原定量</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>乙型肝炎表面抗体</t>
+          <t>乙型肝炎表面抗体定量</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>乙型肝炎e抗原</t>
+          <t>乙型肝炎e抗原定量</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乙型肝炎e抗体</t>
+          <t>乙型肝炎e抗体定量</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>乙型肝炎核心抗体</t>
+          <t>乙型肝炎核心抗体定量</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>抗-HBc.IgM</t>
+          <t>RDW-CV</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBV-PreS1</t>
+          <t>HBV-PreS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
